--- a/AutomationAssignment/src/main/resources/TestData/Sample.xlsx
+++ b/AutomationAssignment/src/main/resources/TestData/Sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21780" windowHeight="7860"/>
+    <workbookView windowWidth="21780" windowHeight="5640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>tusharnaik</t>
   </si>
@@ -30,25 +30,19 @@
     <t>tknaik17</t>
   </si>
   <si>
-    <t>tknaik@17</t>
+    <t>naik</t>
   </si>
   <si>
-    <t>tknaik@gmail.com</t>
+    <t>naik12345</t>
   </si>
   <si>
-    <t>tk</t>
+    <t>naik1@gmail.com</t>
   </si>
   <si>
-    <t>tkn</t>
+    <t>naikfirst</t>
   </si>
   <si>
-    <t>tknaik17@gmail.com</t>
-  </si>
-  <si>
-    <t>tknaikhh</t>
-  </si>
-  <si>
-    <t>abc</t>
+    <t>naiklast</t>
   </si>
 </sst>
 </file>
@@ -58,8 +52,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,13 +67,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,13 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -171,31 +151,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,6 +217,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -241,120 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,36 +392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,130 +531,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,7 +986,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1023,53 +1017,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="tknaik@gmail.com"/>
-    <hyperlink ref="B1" r:id="rId2" display="tknaik@17"/>
-    <hyperlink ref="C2" r:id="rId3" display="tknaik17@gmail.com"/>
+    <hyperlink ref="C1" r:id="rId1" display="naik1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
